--- a/所有供应商TOPSIS得分排名.xlsx
+++ b/所有供应商TOPSIS得分排名.xlsx
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S229</t>
+          <t>S140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9946142358030611</v>
+        <v>0.5773364440440601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S361</t>
+          <t>S229</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9446152568375701</v>
+        <v>0.5375724669184084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S108</t>
+          <t>S361</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8247132979591172</v>
+        <v>0.5340382438094486</v>
       </c>
     </row>
     <row r="5">
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7491317182604761</v>
+        <v>0.5235035500074596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S282</t>
+          <t>S131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7185908357766557</v>
+        <v>0.5187130805651962</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7159590617415735</v>
+        <v>0.5181183931605766</v>
       </c>
     </row>
     <row r="8">
@@ -552,73 +552,73 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.713559827573001</v>
+        <v>0.5179023317709206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S131</t>
+          <t>S282</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7046306242070329</v>
+        <v>0.5178130421251129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S151</t>
+          <t>S108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6911125902745325</v>
+        <v>0.5170499939556619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S308</t>
+          <t>S268</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6858849104201316</v>
+        <v>0.5142252468986362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S330</t>
+          <t>S306</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6816822405720553</v>
+        <v>0.513337665246241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S268</t>
+          <t>S356</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6806355504121451</v>
+        <v>0.5127344942983493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S306</t>
+          <t>S194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,43 +642,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6749287645478381</v>
+        <v>0.5109042195605569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S356</t>
+          <t>S352</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6697587549826143</v>
+        <v>0.509669827550762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S194</t>
+          <t>S308</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6507126631038582</v>
+        <v>0.5094574654161864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S330</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6485914246449104</v>
+        <v>0.5090307173063598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S352</t>
+          <t>S143</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,58 +702,58 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6318676713691473</v>
+        <v>0.5077380616364883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S143</t>
+          <t>S247</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6252415068574192</v>
+        <v>0.5058271321100456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S307</t>
+          <t>S031</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.605906368808243</v>
+        <v>0.5052533565102623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S395</t>
+          <t>S284</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6033065883711842</v>
+        <v>0.5044098304794028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S365</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,58 +762,58 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5937265460168504</v>
+        <v>0.5042211843213557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S374</t>
+          <t>S040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5904879364243553</v>
+        <v>0.5034590505609917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S284</t>
+          <t>S367</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5873201110777476</v>
+        <v>0.5029212966484732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S247</t>
+          <t>S364</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5850440297642446</v>
+        <v>0.5028562664480914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S346</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5848473301433317</v>
+        <v>0.5025715994889332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S365</t>
+          <t>S294</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5830845514303444</v>
+        <v>0.501540456851962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S338</t>
+          <t>S080</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5821359648211879</v>
+        <v>0.5015130156283661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S055</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,103 +867,103 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5820889047512141</v>
+        <v>0.5014161958678683</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S218</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5802999316486808</v>
+        <v>0.5011862198659213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S364</t>
+          <t>S244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5786873362012144</v>
+        <v>0.5011471772721937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S114</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5769241728874105</v>
+        <v>0.5003787894620386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S086</t>
+          <t>S007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.576634029914071</v>
+        <v>0.5003333328295001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S367</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5763056796316416</v>
+        <v>0.5002886515201826</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S346</t>
+          <t>S266</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5748513688350421</v>
+        <v>0.5002072067012263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S114</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5729970964183771</v>
+        <v>0.5001483578062954</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S294</t>
+          <t>S086</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,58 +987,58 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5717457387032722</v>
+        <v>0.500072582560415</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S080</t>
+          <t>S291</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.571725350132162</v>
+        <v>0.4999420540998841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S244</t>
+          <t>S189</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5707863056231953</v>
+        <v>0.4998081917242162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S218</t>
+          <t>S338</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5707458594570128</v>
+        <v>0.499649252324531</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S314</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,58 +1047,58 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5703457089236897</v>
+        <v>0.4994960376500566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S210</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5703116205661175</v>
+        <v>0.4994545342433907</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S291</t>
+          <t>S098</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5699805066945199</v>
+        <v>0.4993274824209605</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5692469223161388</v>
+        <v>0.4992757645609295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S273</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.568440006188497</v>
+        <v>0.4992481450897279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S266</t>
+          <t>S076</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.568049378969614</v>
+        <v>0.499233160690483</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>S078</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5679224422995673</v>
+        <v>0.4992128740067152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S208</t>
+          <t>S129</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5676421348881389</v>
+        <v>0.4991912985599832</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S189</t>
+          <t>S292</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,88 +1167,88 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5675800918540564</v>
+        <v>0.4991727108885441</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S273</t>
+          <t>S067</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5670096740157521</v>
+        <v>0.4990544461093218</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S213</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.566893482411622</v>
+        <v>0.4989920748948731</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S292</t>
+          <t>S074</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5664619322968744</v>
+        <v>0.4989328894710023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S150</t>
+          <t>S146</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5664172309698053</v>
+        <v>0.4988807278307142</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S239</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5662651772673656</v>
+        <v>0.4988761959656968</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S314</t>
+          <t>S037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,148 +1257,148 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.5662281338992456</v>
+        <v>0.4988514993061848</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S154</t>
+          <t>S175</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.5658454973229465</v>
+        <v>0.4988246346323827</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S098</t>
+          <t>S245</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.5658308901341617</v>
+        <v>0.4988225441491009</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S129</t>
+          <t>S208</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5656846636298503</v>
+        <v>0.4987597686552004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S076</t>
+          <t>S088</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.565642728432371</v>
+        <v>0.4987531222395417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S269</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5652826177083169</v>
+        <v>0.4987387749133677</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S213</t>
+          <t>S174</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5651659440655207</v>
+        <v>0.4987318655851017</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S146</t>
+          <t>S221</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5649653488843414</v>
+        <v>0.4987132508589782</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S239</t>
+          <t>S154</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5649414520917024</v>
+        <v>0.4987123298297768</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S245</t>
+          <t>S392</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5648492473439374</v>
+        <v>0.4987071740726636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S175</t>
+          <t>S092</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,118 +1407,118 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5648345756569486</v>
+        <v>0.498701321122545</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S348</t>
+          <t>S172</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5647490934088292</v>
+        <v>0.4986963013826897</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S088</t>
+          <t>S113</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5647152353739556</v>
+        <v>0.498695983231815</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S269</t>
+          <t>S324</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5646738420673051</v>
+        <v>0.4986912585489718</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S174</t>
+          <t>S066</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5646292679837668</v>
+        <v>0.4986813964535077</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S392</t>
+          <t>S263</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5646062823280269</v>
+        <v>0.4986768568568735</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S221</t>
+          <t>S025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5645905039509935</v>
+        <v>0.4986753214737366</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S092</t>
+          <t>S075</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5645853745330057</v>
+        <v>0.4986698268363914</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S172</t>
+          <t>S256</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.5645758919342442</v>
+        <v>0.4986666007637515</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S324</t>
+          <t>S169</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5645708984366108</v>
+        <v>0.4986637238656127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S066</t>
+          <t>S237</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,73 +1557,73 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5645665950005598</v>
+        <v>0.4986586586700757</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S113</t>
+          <t>S310</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.5645641501411489</v>
+        <v>0.4986531948790512</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S263</t>
+          <t>S046</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5645455218995395</v>
+        <v>0.4986454626841303</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S202</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.5645257967161179</v>
+        <v>0.4986451941643842</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S141</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5645190259465229</v>
+        <v>0.4986426941308172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S256</t>
+          <t>S216</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5645164038199286</v>
+        <v>0.4986364362715476</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S202</t>
+          <t>S360</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5644976753132399</v>
+        <v>0.4986263526182646</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S310</t>
+          <t>S258</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.5644934907323065</v>
+        <v>0.4986139159850198</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S169</t>
+          <t>S197</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,28 +1677,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5644869418942506</v>
+        <v>0.4986060197059209</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S237</t>
+          <t>S110</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5644728312132358</v>
+        <v>0.4986049350933342</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S216</t>
+          <t>S138</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,28 +1707,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5644637748058705</v>
+        <v>0.4985996607501689</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S141</t>
+          <t>S152</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5644634223643601</v>
+        <v>0.4985945514882833</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S138</t>
+          <t>S260</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,43 +1737,43 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.5644595080329059</v>
+        <v>0.4985922090644421</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S376</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.5644560759930809</v>
+        <v>0.4985800915278453</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S360</t>
+          <t>S115</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.5644414525392177</v>
+        <v>0.4985485046001942</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S258</t>
+          <t>S054</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,28 +1782,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.5644214734319705</v>
+        <v>0.4985412488116876</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S197</t>
+          <t>S318</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5643909482635626</v>
+        <v>0.49849151092967</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S110</t>
+          <t>S210</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,43 +1812,43 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5643897643794615</v>
+        <v>0.4984571778268882</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S152</t>
+          <t>S186</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5643671932341479</v>
+        <v>0.4984554609854342</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S260</t>
+          <t>S023</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5643606889768485</v>
+        <v>0.4983852813440841</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S376</t>
+          <t>S224</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5643464131221302</v>
+        <v>0.498381300608029</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S115</t>
+          <t>S304</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,28 +1872,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.564280902691246</v>
+        <v>0.4983467306933375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S149</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5642589891807462</v>
+        <v>0.4982695761530681</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S362</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,43 +1902,43 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.5641690202868644</v>
+        <v>0.4982688461241277</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S186</t>
+          <t>S191</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.5641469074992772</v>
+        <v>0.498262137476303</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S318</t>
+          <t>S253</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.5641065172933023</v>
+        <v>0.4982572293826538</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S224</t>
+          <t>S333</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,133 +1947,133 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.563866575146775</v>
+        <v>0.4982397016705823</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>S002</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.5638178366459583</v>
+        <v>0.4981898790914664</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S304</t>
+          <t>S388</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.563780276131982</v>
+        <v>0.4981626606045651</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S333</t>
+          <t>S270</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.5636228838022302</v>
+        <v>0.4981559495790628</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S149</t>
+          <t>S065</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5635747221088516</v>
+        <v>0.4981303750372394</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S362</t>
+          <t>S069</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.5635409240261985</v>
+        <v>0.4981302634100865</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S253</t>
+          <t>S397</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.5635292971698821</v>
+        <v>0.4981112169090502</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S180</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.5634239760496049</v>
+        <v>0.4981075906315359</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S388</t>
+          <t>S357</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.563336452913202</v>
+        <v>0.4981050865361258</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S069</t>
+          <t>S036</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,28 +2082,28 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5632985799185776</v>
+        <v>0.4981014012740889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S270</t>
+          <t>S178</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.563284287916113</v>
+        <v>0.4980904889707868</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S211</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,28 +2112,28 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.5632771252137891</v>
+        <v>0.4980836286640227</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S357</t>
+          <t>S332</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.5631819313056126</v>
+        <v>0.4980801065579009</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S397</t>
+          <t>S366</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.5631688988513321</v>
+        <v>0.4980660541520758</v>
       </c>
     </row>
     <row r="115">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.5631662606209547</v>
+        <v>0.4980615541773264</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S180</t>
+          <t>S233</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,37 +2172,37 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.5631624550125873</v>
+        <v>0.4980542935348917</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.563146701857678</v>
+        <v>0.4980524228993068</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S211</t>
+          <t>S271</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.563135129458657</v>
+        <v>0.4980524093654133</v>
       </c>
     </row>
     <row r="119">
@@ -2217,28 +2217,28 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5631104074285873</v>
+        <v>0.4980506378596766</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S332</t>
+          <t>S342</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.5631093419005478</v>
+        <v>0.4980465572688648</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S178</t>
+          <t>S165</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,88 +2247,88 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.5630980599572392</v>
+        <v>0.4980398617478319</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S165</t>
+          <t>S379</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.563094101055131</v>
+        <v>0.498026817702377</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S233</t>
+          <t>S267</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.5630929832111405</v>
+        <v>0.4980183964109471</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S366</t>
+          <t>S351</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.5630708473248193</v>
+        <v>0.4980124298679175</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S271</t>
+          <t>S106</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.5630633513566534</v>
+        <v>0.4980107799698867</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S128</t>
+          <t>S386</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.56306314618987</v>
+        <v>0.4980072538795666</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S267</t>
+          <t>S331</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,43 +2337,43 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.5630507317355212</v>
+        <v>0.4979843928764003</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S342</t>
+          <t>S053</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.5629905693424418</v>
+        <v>0.4979750983876057</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S379</t>
+          <t>S035</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.5629381450128144</v>
+        <v>0.4979712642431571</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S386</t>
+          <t>S353</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,43 +2382,43 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.5629307287900648</v>
+        <v>0.497968345900126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S331</t>
+          <t>S159</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.562921684882051</v>
+        <v>0.4979594312694442</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S176</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.5629054188980361</v>
+        <v>0.4979571519396964</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S106</t>
+          <t>S030</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,22 +2427,22 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.5629004032311027</v>
+        <v>0.4979564119051589</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S351</t>
+          <t>S102</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5628998838022685</v>
+        <v>0.4979562057941081</v>
       </c>
     </row>
     <row r="135">
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5628897494368594</v>
+        <v>0.4979551773629435</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S102</t>
+          <t>S050</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.5628881184489087</v>
+        <v>0.4979503809048419</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S295</t>
+          <t>S021</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,28 +2487,28 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.5628828256808409</v>
+        <v>0.4979477413957699</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S176</t>
+          <t>S301</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.5628752311348501</v>
+        <v>0.4979411711512513</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S159</t>
+          <t>S381</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,58 +2517,58 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.5628659537365096</v>
+        <v>0.4979361017129892</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S024</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.5628227106618114</v>
+        <v>0.497935917285998</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S295</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.5628095091238684</v>
+        <v>0.4979348421200371</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S214</t>
+          <t>S011</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.5628040642743209</v>
+        <v>0.4979313323382573</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S353</t>
+          <t>S235</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,58 +2577,58 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.5628037158102762</v>
+        <v>0.4979309808275271</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S286</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.5627974952849147</v>
+        <v>0.4979302473612339</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>S163</t>
+          <t>S279</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.5627752387573356</v>
+        <v>0.4979279090667741</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>S339</t>
+          <t>S336</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.5627624399317708</v>
+        <v>0.4979222621661979</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S296</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,58 +2637,58 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.5627564966649775</v>
+        <v>0.4979222168330328</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>S279</t>
+          <t>S214</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.5627538234719288</v>
+        <v>0.4979212348233389</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S383</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.5627444418440064</v>
+        <v>0.4979191411752241</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>S235</t>
+          <t>S122</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.5627440064481859</v>
+        <v>0.4979172846302594</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>S301</t>
+          <t>S359</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,58 +2697,58 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.5627412692894347</v>
+        <v>0.4979150245302915</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S193</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.5627302000151845</v>
+        <v>0.4979144447591941</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>S381</t>
+          <t>S133</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.5627262378835295</v>
+        <v>0.4979106616292832</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>S286</t>
+          <t>S339</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.5627172949933661</v>
+        <v>0.497909105909099</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>S296</t>
+          <t>S163</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,43 +2757,43 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.5627168299677611</v>
+        <v>0.4979045761888579</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>S336</t>
+          <t>S188</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.5627144751226247</v>
+        <v>0.4979026415770292</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>S359</t>
+          <t>S027</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.5627090808285915</v>
+        <v>0.4979011698067685</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>S122</t>
+          <t>S227</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,28 +2802,28 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.5626971729237218</v>
+        <v>0.4978972859403812</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>S383</t>
+          <t>S274</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.562684044140106</v>
+        <v>0.4978958879364172</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S227</t>
+          <t>S203</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.5626777357569042</v>
+        <v>0.4978932654577855</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>S226</t>
+          <t>S087</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,58 +2847,58 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.5626736147291197</v>
+        <v>0.4978921588351822</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>S274</t>
+          <t>S316</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.5626672262940825</v>
+        <v>0.4978908731002923</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S070</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.5626623676075058</v>
+        <v>0.4978899357875542</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>S193</t>
+          <t>S226</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.5626606327386207</v>
+        <v>0.4978897276757052</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>S133</t>
+          <t>S090</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,43 +2907,43 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.562652861624522</v>
+        <v>0.4978874947097933</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>S207</t>
+          <t>S081</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.5626481270662645</v>
+        <v>0.497877170355543</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>S313</t>
+          <t>S232</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.5626469238073685</v>
+        <v>0.4978768868678406</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>S090</t>
+          <t>S377</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.5626435955242804</v>
+        <v>0.4978727447381161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>S299</t>
+          <t>S312</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,28 +2967,28 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.5626388820723923</v>
+        <v>0.4978725575742446</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>S316</t>
+          <t>S254</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.5626335741046385</v>
+        <v>0.4978716456376767</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>S209</t>
+          <t>S132</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.56263239585687</v>
+        <v>0.4978703943644857</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>S087</t>
+          <t>S337</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,58 +3012,58 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.5626267915680897</v>
+        <v>0.4978694421901183</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>S312</t>
+          <t>S259</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.5626188445132847</v>
+        <v>0.4978671420077233</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>S188</t>
+          <t>S209</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.5626180763211873</v>
+        <v>0.497866676720113</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S091</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.5626152777653628</v>
+        <v>0.4978646408747986</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>S377</t>
+          <t>S182</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,43 +3072,43 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.5626117793038108</v>
+        <v>0.4978631152810108</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>S259</t>
+          <t>S207</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.5626026628994919</v>
+        <v>0.4978596504424973</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>S232</t>
+          <t>S349</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.5626017336061371</v>
+        <v>0.4978567757359944</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>S203</t>
+          <t>S116</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,28 +3117,28 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.5625988897169489</v>
+        <v>0.4978566577506048</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>S254</t>
+          <t>S033</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.5625932369526592</v>
+        <v>0.4978527797651248</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>S132</t>
+          <t>S052</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,28 +3147,28 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.5625912731645554</v>
+        <v>0.4978526519286741</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>S091</t>
+          <t>S013</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.5625885668308473</v>
+        <v>0.4978512459911783</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>S182</t>
+          <t>S313</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,43 +3177,43 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.5625842881286548</v>
+        <v>0.4978498127872954</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>S081</t>
+          <t>S299</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.5625737865136227</v>
+        <v>0.4978490130382875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S016</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.5625665527551604</v>
+        <v>0.497842961495292</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>S117</t>
+          <t>S073</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.5625522055293239</v>
+        <v>0.4978426539863215</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>S337</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.5625497377101678</v>
+        <v>0.4978415521750984</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>S389</t>
+          <t>S048</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,43 +3252,43 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.5625410734058416</v>
+        <v>0.4978380932499947</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S305</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.5625400521586209</v>
+        <v>0.497835733685806</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>S116</t>
+          <t>S206</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.5625384097657649</v>
+        <v>0.4978345276811409</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>S089</t>
+          <t>S121</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.5625351071154412</v>
+        <v>0.4978314507599518</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>S349</t>
+          <t>S032</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.562534441697124</v>
+        <v>0.4978309435470761</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>S249</t>
+          <t>S225</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,28 +3327,28 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.5625306001543663</v>
+        <v>0.4978303628593926</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S026</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.5625217639130521</v>
+        <v>0.4978274079247168</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S171</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,58 +3357,58 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.5625216752853468</v>
+        <v>0.4978260095947322</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>S121</t>
+          <t>S044</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.5625145716647748</v>
+        <v>0.4978259257030072</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>S171</t>
+          <t>S249</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.5625079759393324</v>
+        <v>0.4978241291981016</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S298</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.562505051975397</v>
+        <v>0.4978225502038472</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>S322</t>
+          <t>S389</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,73 +3417,73 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.5624931977103502</v>
+        <v>0.4978219557572678</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S236</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.5624873284465998</v>
+        <v>0.4978188089394349</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>S170</t>
+          <t>S059</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.5624862779960761</v>
+        <v>0.4978177455582997</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>S399</t>
+          <t>S170</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.5624856064528623</v>
+        <v>0.4978172471007883</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S322</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.5624839304515522</v>
+        <v>0.4978156299082514</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>S014</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,43 +3492,43 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.5624801500607499</v>
+        <v>0.497814986922177</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>S073</t>
+          <t>S219</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.5624686944268849</v>
+        <v>0.497813404435367</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S018</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.5624680698015513</v>
+        <v>0.4978122314636145</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>S401</t>
+          <t>S327</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.5624670206366428</v>
+        <v>0.4978082700673963</v>
       </c>
     </row>
     <row r="208">
@@ -3552,58 +3552,58 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.5624632995744623</v>
+        <v>0.4978079555693904</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>S305</t>
+          <t>S399</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.5624472375919407</v>
+        <v>0.4978069536193803</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>S347</t>
+          <t>S401</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.562438121630585</v>
+        <v>0.49780314766995</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S217</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.5624363201023652</v>
+        <v>0.4978017613261194</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>S217</t>
+          <t>S255</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.5624307234957637</v>
+        <v>0.4977995396257401</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>S206</t>
+          <t>S347</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,103 +3627,103 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.5624300442177123</v>
+        <v>0.4977949932677048</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>S325</t>
+          <t>S049</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.5624272081582958</v>
+        <v>0.4977942523200524</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>S370</t>
+          <t>S358</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.5624270221526104</v>
+        <v>0.4977913488090951</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>S225</t>
+          <t>S041</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.5624253752653109</v>
+        <v>0.4977912149013582</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S120</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.5624229792009771</v>
+        <v>0.4977891402145831</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>S236</t>
+          <t>S196</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.5624180387249654</v>
+        <v>0.4977884244592841</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S303</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.5624180370041643</v>
+        <v>0.4977883498238328</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>S167</t>
+          <t>S042</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,28 +3732,28 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.5624177233000884</v>
+        <v>0.4977860652684383</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S370</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.5624163358383311</v>
+        <v>0.4977859496532522</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>S311</t>
+          <t>S079</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,28 +3762,28 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.5624150660321547</v>
+        <v>0.4977843273146771</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>S079</t>
+          <t>S094</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.5624143634883562</v>
+        <v>0.4977836531820615</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S167</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,88 +3792,88 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.5624113258147673</v>
+        <v>0.497782134022673</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>S327</t>
+          <t>S085</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.5624099882103917</v>
+        <v>0.4977815302856955</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>S094</t>
+          <t>S311</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.5624085037843158</v>
+        <v>0.4977785067870066</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>S298</t>
+          <t>S325</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.5624072290965936</v>
+        <v>0.4977756201095496</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>S255</t>
+          <t>S384</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.562396946511418</v>
+        <v>0.4977753542407993</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.5623933248815919</v>
+        <v>0.4977719512652025</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>S242</t>
+          <t>S363</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.562392213434412</v>
+        <v>0.4977716624790716</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>S085</t>
+          <t>S345</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.5623895147454789</v>
+        <v>0.4977714720607055</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>S205</t>
+          <t>S017</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,28 +3912,28 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.5623881101462399</v>
+        <v>0.4977707817527778</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>S196</t>
+          <t>S057</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.562387624524519</v>
+        <v>0.4977657978819087</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S205</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.5623816990035088</v>
+        <v>0.4977627448664976</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>S064</t>
+          <t>S082</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.5623755196454561</v>
+        <v>0.4977625493869103</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>S220</t>
+          <t>S368</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,88 +3972,88 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.5623718738015036</v>
+        <v>0.4977613757693719</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>S184</t>
+          <t>S028</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.562367877281189</v>
+        <v>0.4977607393347902</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>S120</t>
+          <t>S242</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.5623668851043967</v>
+        <v>0.49775708501884</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>S082</t>
+          <t>S060</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.5623617176392572</v>
+        <v>0.4977563442926649</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>S384</t>
+          <t>S056</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.5623602903196996</v>
+        <v>0.4977534184103551</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S288</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.5623559326684309</v>
+        <v>0.4977533546060314</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>S363</t>
+          <t>S072</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,73 +4062,73 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.5623513992930957</v>
+        <v>0.4977532440572207</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S264</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.5623473332469378</v>
+        <v>0.4977520888654836</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>S358</t>
+          <t>S020</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.562329527613493</v>
+        <v>0.4977506039404056</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>S127</t>
+          <t>S220</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.562329392041484</v>
+        <v>0.4977478347724261</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S184</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.5623286319881933</v>
+        <v>0.4977474068760266</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>S124</t>
+          <t>S378</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,88 +4137,88 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.562323546392281</v>
+        <v>0.4977441831433532</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>S345</t>
+          <t>S147</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.562323248924202</v>
+        <v>0.4977402629147634</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>S303</t>
+          <t>S127</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.5623194709627868</v>
+        <v>0.4977380942070572</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S109</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.5623191393860928</v>
+        <v>0.4977365479542764</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>S248</t>
+          <t>S223</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.5623136509918119</v>
+        <v>0.4977363388370385</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>S378</t>
+          <t>S398</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.5623129658436717</v>
+        <v>0.4977358084339616</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>S261</t>
+          <t>S117</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,88 +4227,88 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.5623063130153392</v>
+        <v>0.4977332422708001</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>S072</t>
+          <t>S142</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.5623045274515032</v>
+        <v>0.4977319120843627</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>S368</t>
+          <t>S010</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.5623013237342205</v>
+        <v>0.4977281813213088</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S248</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.5623009592970335</v>
+        <v>0.4977266526464742</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>S200</t>
+          <t>S062</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.5622937461665605</v>
+        <v>0.4977260191509401</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>S391</t>
+          <t>S300</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.5622841604817744</v>
+        <v>0.4977255651587371</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>S104</t>
+          <t>S187</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.5622838304957674</v>
+        <v>0.4977214233184021</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>S223</t>
+          <t>S382</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.5622822442045303</v>
+        <v>0.4977207327004335</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>S109</t>
+          <t>S104</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.5622802469310301</v>
+        <v>0.4977194376470633</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>S288</t>
+          <t>S281</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,28 +4362,28 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.5622790108561992</v>
+        <v>0.4977194369774998</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>S398</t>
+          <t>S166</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.5622712496729662</v>
+        <v>0.4977170133698703</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S135</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,28 +4392,28 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.5622704450616623</v>
+        <v>0.4977159645300771</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>S142</t>
+          <t>S243</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.5622683670324405</v>
+        <v>0.4977104051777331</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>S199</t>
+          <t>S112</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,43 +4422,43 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.5622680305781612</v>
+        <v>0.4977101408263683</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>S187</t>
+          <t>S321</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.562266313198481</v>
+        <v>0.4977049941329551</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>S326</t>
+          <t>S200</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.5622603763215075</v>
+        <v>0.4977009791087213</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S391</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.5622517647229001</v>
+        <v>0.4977007919691436</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>S382</t>
+          <t>S008</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,58 +4482,58 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.5622403502934149</v>
+        <v>0.4976988605269406</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>S147</t>
+          <t>S155</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.5622403033632206</v>
+        <v>0.4976917470547422</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>S243</t>
+          <t>S261</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.5622384326119115</v>
+        <v>0.4976916286669574</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>S300</t>
+          <t>S385</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.562232674086092</v>
+        <v>0.4976913735481663</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>S166</t>
+          <t>S272</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,43 +4542,43 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.5622290256846503</v>
+        <v>0.4976903609656249</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>S264</t>
+          <t>S156</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.5622238571019935</v>
+        <v>0.4976903049177225</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>S281</t>
+          <t>S320</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.5622234084994261</v>
+        <v>0.4976868186074666</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>S319</t>
+          <t>S190</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,67 +4587,67 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.5622230630065765</v>
+        <v>0.4976857146121763</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>S155</t>
+          <t>S177</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.5622058082515647</v>
+        <v>0.4976852236028759</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>S385</t>
+          <t>S144</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.5622001782781039</v>
+        <v>0.4976851880359395</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>S272</t>
+          <t>S204</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.5621960890535675</v>
+        <v>0.497682927916104</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>S320</t>
+          <t>S278</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.5621895880203539</v>
+        <v>0.4976781216690429</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.5621881065203448</v>
+        <v>0.4976774945982159</v>
       </c>
     </row>
     <row r="283">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.5621879564103502</v>
+        <v>0.4976772983540261</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>S278</t>
+          <t>S038</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,43 +4692,43 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.5621834853142581</v>
+        <v>0.4976766941981827</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>S156</t>
+          <t>S257</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.562181350255669</v>
+        <v>0.4976737181624777</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S390</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.5621805611842544</v>
+        <v>0.4976724792755886</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>S107</t>
+          <t>S326</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,67 +4737,67 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.5621802467493554</v>
+        <v>0.4976724096038889</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.5621801450497454</v>
+        <v>0.4976716421604006</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>S177</t>
+          <t>S001</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.5621706515989721</v>
+        <v>0.497669097169262</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>S112</t>
+          <t>S061</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.5621667278707619</v>
+        <v>0.4976683628187987</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>S135</t>
+          <t>S130</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.5621653235174657</v>
+        <v>0.4976668301002656</v>
       </c>
     </row>
     <row r="292">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.5621648618445098</v>
+        <v>0.4976640914439532</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>S101</t>
+          <t>S022</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,28 +4827,28 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.5621580963761419</v>
+        <v>0.4976635024936329</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S045</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.5621476730604924</v>
+        <v>0.4976602606350741</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>S130</t>
+          <t>S119</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.5621442362677461</v>
+        <v>0.4976591049058958</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>S341</t>
+          <t>S077</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.5621427085544825</v>
+        <v>0.4976587940835644</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S199</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,73 +4887,73 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.5621425049831812</v>
+        <v>0.4976556656629565</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>S125</t>
+          <t>S043</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.5621368810442801</v>
+        <v>0.4976544149786952</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>S390</t>
+          <t>S101</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.5621324292696603</v>
+        <v>0.4976536062375395</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>S136</t>
+          <t>S319</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.56212977453502</v>
+        <v>0.4976509265324883</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>S257</t>
+          <t>S058</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.5621236489250634</v>
+        <v>0.4976499523240151</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>S029</t>
+          <t>S019</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,28 +4962,28 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.5621230257220141</v>
+        <v>0.4976469999369504</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S315</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.5621214404871011</v>
+        <v>0.4976440024458955</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>S321</t>
+          <t>S328</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,163 +4992,163 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.5621190613753323</v>
+        <v>0.4976432258648969</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S344</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.5621093323417607</v>
+        <v>0.4976381848492637</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S317</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.5621090202651011</v>
+        <v>0.4976372805801169</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>S204</t>
+          <t>S029</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.5621039748209717</v>
+        <v>0.4976347425193822</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S136</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.5621031457478672</v>
+        <v>0.4976345152478892</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>S315</t>
+          <t>S068</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.5620992054137114</v>
+        <v>0.4976310518199419</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S084</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.5620969917944084</v>
+        <v>0.4976279839580438</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>S118</t>
+          <t>S107</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.5620955615695185</v>
+        <v>0.4976275861151453</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>S148</t>
+          <t>S393</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.5620953023189665</v>
+        <v>0.4976244517996812</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>S190</t>
+          <t>S148</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.5620946920255369</v>
+        <v>0.4976210717033367</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>S099</t>
+          <t>S095</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.5620900867637169</v>
+        <v>0.4976194322097716</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>S144</t>
+          <t>S283</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,103 +5157,103 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.5620893054400389</v>
+        <v>0.4976191137578237</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S181</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.5620729298493369</v>
+        <v>0.497618397039969</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>S119</t>
+          <t>S006</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.5620716814686416</v>
+        <v>0.4976179463968201</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>S317</t>
+          <t>S375</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.5620671623079136</v>
+        <v>0.4976154620718315</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>S084</t>
+          <t>S198</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.5620631674005611</v>
+        <v>0.4976149227434866</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>S234</t>
+          <t>S071</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.5620595544146463</v>
+        <v>0.4976142829114146</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>S164</t>
+          <t>S341</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.5620558188181811</v>
+        <v>0.4976138958029223</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>S252</t>
+          <t>S164</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,58 +5262,58 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.562052892677905</v>
+        <v>0.4976121595571417</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>S181</t>
+          <t>S276</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.5620475569824213</v>
+        <v>0.4975968373664257</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>S068</t>
+          <t>S012</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.5620441954132195</v>
+        <v>0.4975945934031754</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>S344</t>
+          <t>S396</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.5620388959965724</v>
+        <v>0.49759358935588</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S063</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,73 +5322,73 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.562026850270529</v>
+        <v>0.4975858958792375</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>S369</t>
+          <t>S118</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.5620246997943688</v>
+        <v>0.497584521949646</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>S198</t>
+          <t>S009</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.562021984622892</v>
+        <v>0.4975787694002311</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>S375</t>
+          <t>S099</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.5620211288643303</v>
+        <v>0.4975768623002018</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>S396</t>
+          <t>S252</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.5620176165272023</v>
+        <v>0.4975752930860715</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>S328</t>
+          <t>S240</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,43 +5397,43 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.5620140259964431</v>
+        <v>0.4975698447892747</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>S276</t>
+          <t>S192</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.5620044472549905</v>
+        <v>0.497568769192891</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S179</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.5620013519121808</v>
+        <v>0.4975649922421347</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>S283</t>
+          <t>S373</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,58 +5442,58 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.5619971232571297</v>
+        <v>0.4975615383034082</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>S095</t>
+          <t>S350</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.5619946524517465</v>
+        <v>0.4975585243450843</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>S071</t>
+          <t>S262</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.5619928234969538</v>
+        <v>0.4975578591739196</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>S230</t>
+          <t>S241</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.5619817969109876</v>
+        <v>0.4975576843448047</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>S111</t>
+          <t>S400</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,58 +5502,58 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.5619644078835175</v>
+        <v>0.4975466847410617</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>S393</t>
+          <t>S372</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.561959181188206</v>
+        <v>0.4975465742706797</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>S350</t>
+          <t>S111</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.5619570505030123</v>
+        <v>0.49754651567686</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S369</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.5619567702310437</v>
+        <v>0.4975464373063211</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S302</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,28 +5562,28 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.5619509344917368</v>
+        <v>0.497545518418504</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>S380</t>
+          <t>S394</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.5619492732436372</v>
+        <v>0.4975357439521027</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>S192</t>
+          <t>S234</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.5619454969912412</v>
+        <v>0.4975326343521389</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>S302</t>
+          <t>S250</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,28 +5607,28 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.561937849379644</v>
+        <v>0.4975245747893018</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>S262</t>
+          <t>S222</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.5619246399510714</v>
+        <v>0.4975166063815051</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>S373</t>
+          <t>S289</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.5619182813390246</v>
+        <v>0.4975152144581848</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>S179</t>
+          <t>S230</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,28 +5652,28 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.5619106267155302</v>
+        <v>0.4975069725169982</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>S372</t>
+          <t>S215</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.5619087813184339</v>
+        <v>0.4975002409018692</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>S222</t>
+          <t>S287</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,43 +5682,43 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.5619073233095748</v>
+        <v>0.4974965743456043</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>S250</t>
+          <t>S380</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.5619071486983778</v>
+        <v>0.497495016371954</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>S241</t>
+          <t>S093</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.5619038203413161</v>
+        <v>0.4974917072995148</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>S145</t>
+          <t>S309</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,88 +5727,88 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.5619011637498823</v>
+        <v>0.4974915121663108</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>S309</t>
+          <t>S173</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.5618982750658702</v>
+        <v>0.497484287007855</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>S173</t>
+          <t>S168</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.5618963370804917</v>
+        <v>0.4974842814750154</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>S400</t>
+          <t>S212</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.5618822925091662</v>
+        <v>0.4974830230279619</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>S289</t>
+          <t>S162</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.5618676816665722</v>
+        <v>0.4974802883228211</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>S240</t>
+          <t>S145</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.5618562082083695</v>
+        <v>0.4974761105287633</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>S394</t>
+          <t>S195</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.5618540751025742</v>
+        <v>0.4974731644030889</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>S195</t>
+          <t>S293</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,88 +5832,88 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.5618472232653704</v>
+        <v>0.4974688235986692</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>S354</t>
+          <t>S402</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.5618311038474182</v>
+        <v>0.4974595997929209</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>S168</t>
+          <t>S354</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.5618257775110572</v>
+        <v>0.4974520773541342</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>S093</t>
+          <t>S277</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.5618034637061893</v>
+        <v>0.4974488575160366</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>S215</t>
+          <t>S100</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.561796813278726</v>
+        <v>0.4974436093011078</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>S287</t>
+          <t>S355</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.5617600129652368</v>
+        <v>0.4974376645822608</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>S212</t>
+          <t>S034</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.5617425631028476</v>
+        <v>0.4974221495547977</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>S371</t>
+          <t>S387</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,43 +5937,43 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.5617317480207957</v>
+        <v>0.4973921108042113</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>S293</t>
+          <t>S371</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.5617303196233073</v>
+        <v>0.4973918809965638</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>S162</t>
+          <t>S238</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.5617160298621879</v>
+        <v>0.4973810797119879</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>S355</t>
+          <t>S103</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,58 +5982,58 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.5617144299402372</v>
+        <v>0.4973651330010696</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>S277</t>
+          <t>S064</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.5617117013940909</v>
+        <v>0.4973605684589764</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>S402</t>
+          <t>S334</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.561670751516122</v>
+        <v>0.4973577105909892</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>S323</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.5616670465995562</v>
+        <v>0.4973427219274388</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S290</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,103 +6042,103 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.561652604371455</v>
+        <v>0.4973353331706273</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>S103</t>
+          <t>S153</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.5616466541028925</v>
+        <v>0.4973261463275084</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>S387</t>
+          <t>S251</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.5616163538165742</v>
+        <v>0.4972865081084429</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>S323</t>
+          <t>S343</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.561602434109455</v>
+        <v>0.4972409820045049</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>S290</t>
+          <t>S051</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.5615882230836552</v>
+        <v>0.4972230724943135</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>S153</t>
+          <t>S083</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.5615679819497728</v>
+        <v>0.4971932115890798</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>S238</t>
+          <t>S231</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.561540747876751</v>
+        <v>0.4971650394995138</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>S334</t>
+          <t>S228</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,43 +6147,43 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.5615357452960997</v>
+        <v>0.497156348017512</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>S251</t>
+          <t>S137</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.5614167251874195</v>
+        <v>0.4970693341528855</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S297</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.5613841829006372</v>
+        <v>0.4970323845589946</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>S083</t>
+          <t>S285</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.5613676461909131</v>
+        <v>0.4969382953371882</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>S343</t>
+          <t>S183</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,148 +6207,148 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.5613516339599062</v>
+        <v>0.496629167573022</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>S228</t>
+          <t>S047</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.5612996175065207</v>
+        <v>0.4966012476532238</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>S231</t>
+          <t>S158</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.561253377434568</v>
+        <v>0.4959151416062146</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>S137</t>
+          <t>S246</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.561115857243712</v>
+        <v>0.4959101523009533</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>S297</t>
+          <t>S097</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.5610318147321652</v>
+        <v>0.4956448971431875</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>S285</t>
+          <t>S335</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.5609082828991275</v>
+        <v>0.4955289956069214</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S157</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.5604096937045496</v>
+        <v>0.4950151535864903</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>S183</t>
+          <t>S096</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.5603517072997731</v>
+        <v>0.4942992188982434</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>S158</t>
+          <t>S161</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.5592673731338478</v>
+        <v>0.4942804009461615</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>S246</t>
+          <t>S395</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.5591992814355475</v>
+        <v>0.492933847317518</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>S097</t>
+          <t>S015</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,82 +6357,82 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.5588604149609416</v>
+        <v>0.4916261163256838</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>S335</t>
+          <t>S307</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.5586001759863953</v>
+        <v>0.4876486050468692</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>S157</t>
+          <t>S160</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.5584119015650352</v>
+        <v>0.4856240179174325</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>S096</t>
+          <t>S374</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.5565879534613319</v>
+        <v>0.4838086434734675</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>S161</t>
+          <t>S139</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.5564445674523339</v>
+        <v>0.4751780509413471</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S151</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.5518377576973674</v>
+        <v>0.4722260287973047</v>
       </c>
     </row>
     <row r="401">
@@ -6447,22 +6447,22 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.5433640803647353</v>
+        <v>0.467425836292545</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>S160</t>
+          <t>S348</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.5409707211133343</v>
+        <v>0.4286955707343701</v>
       </c>
     </row>
     <row r="403">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.1103819419020534</v>
+        <v>0.2896378326840068</v>
       </c>
     </row>
   </sheetData>
